--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA71B15-B318-425E-A359-89F9FC2CE854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4521F9-2E20-4244-B6CC-892FBB8A431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,22 @@
   </si>
   <si>
     <t>1000동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,11 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1840,7 +1856,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B85" si="1">B67*10</f>
+        <f t="shared" ref="B68:B89" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2103,6 +2119,66 @@
       </c>
       <c r="D85">
         <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999986E+192</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E+193</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999985E+194</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4521F9-2E20-4244-B6CC-892FBB8A431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC6DC3-42D7-4769-BCA5-A6ED05A63AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,38 @@
   </si>
   <si>
     <t>1000멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,11 +866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1888,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B89" si="1">B67*10</f>
+        <f t="shared" ref="B68:B97" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2179,6 +2211,126 @@
       </c>
       <c r="D89">
         <v>540</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="1"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="1"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC6DC3-42D7-4769-BCA5-A6ED05A63AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E3DD7-037B-4321-B9AE-48DA01540E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,22 @@
   </si>
   <si>
     <t>1000증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000쾌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
@@ -1888,7 +1904,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B97" si="1">B67*10</f>
+        <f t="shared" ref="B68:B101" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2331,6 +2347,66 @@
       </c>
       <c r="D97">
         <v>700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+205</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+206</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+207</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E3DD7-037B-4321-B9AE-48DA01540E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF6930A-1055-4902-AD5D-02098DE9A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,22 @@
   </si>
   <si>
     <t>1000쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,11 +898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1904,7 +1920,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B101" si="1">B67*10</f>
+        <f t="shared" ref="B68:B105" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2407,6 +2423,66 @@
       </c>
       <c r="D101">
         <v>780</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+210</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+211</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105">
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF6930A-1055-4902-AD5D-02098DE9A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2811D-5AB1-4A4F-8256-C541FFE0FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,22 @@
   </si>
   <si>
     <t>1000우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,9 +618,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -642,7 +658,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -748,7 +764,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -890,7 +906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,11 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1920,7 +1936,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B105" si="1">B67*10</f>
+        <f t="shared" ref="B68:B109" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2483,6 +2499,66 @@
       </c>
       <c r="D105">
         <v>860</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+212</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+213</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+214</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+215</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109">
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2811D-5AB1-4A4F-8256-C541FFE0FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9094307-392D-4C56-8494-8089BA66A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,38 @@
   </si>
   <si>
     <t>1000팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,11 +946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C109:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1936,7 +1968,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B109" si="1">B67*10</f>
+        <f t="shared" ref="B68:B117" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2559,6 +2591,126 @@
       </c>
       <c r="D109">
         <v>940</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+216</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+217</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+219</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+221</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+222</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+223</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9094307-392D-4C56-8494-8089BA66A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E5BC53-981F-4FAA-AF84-67037A14CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,22 @@
   </si>
   <si>
     <t>1000한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C109:C110"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1968,7 +1984,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B117" si="1">B67*10</f>
+        <f t="shared" ref="B68:B121" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2711,6 +2727,66 @@
       </c>
       <c r="D117">
         <v>1100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121">
+        <v>1180</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E5BC53-981F-4FAA-AF84-67037A14CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E9DDC-0345-4693-92BE-92374ACDB4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,22 @@
   </si>
   <si>
     <t>1000혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,11 +978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1984,7 +2000,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B121" si="1">B67*10</f>
+        <f t="shared" ref="B68:B125" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2787,6 +2803,66 @@
       </c>
       <c r="D121">
         <v>1180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+228</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+230</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E9DDC-0345-4693-92BE-92374ACDB4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1220F-FD87-4FFD-BBCD-B814C11565AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,22 @@
   </si>
   <si>
     <t>1000연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,11 +994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2000,7 +2016,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B125" si="1">B67*10</f>
+        <f t="shared" ref="B68:B129" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2863,6 +2879,66 @@
       </c>
       <c r="D125">
         <v>1260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999997E+232</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+234</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+235</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129">
+        <v>1340</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1220F-FD87-4FFD-BBCD-B814C11565AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB421F80-12ED-4521-A524-A1DC52851987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,22 @@
   </si>
   <si>
     <t>1000난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
@@ -2016,7 +2032,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B129" si="1">B67*10</f>
+        <f t="shared" ref="B68:B131" si="1">B67*10</f>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2939,6 +2955,66 @@
       </c>
       <c r="D129">
         <v>1340</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+237</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" ref="B132:B133" si="2">B131*10</f>
+        <v>1E+238</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+239</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133">
+        <v>1420</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB421F80-12ED-4521-A524-A1DC52851987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC8A94-52B3-4CB2-A0AC-2A5D3091C033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,22 @@
   </si>
   <si>
     <t>1000군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2992,7 +3008,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B133" si="2">B131*10</f>
+        <f t="shared" ref="B132:B137" si="2">B131*10</f>
         <v>1E+238</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -3015,6 +3031,66 @@
       </c>
       <c r="D133">
         <v>1420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+240</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+241</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+242</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+243</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC8A94-52B3-4CB2-A0AC-2A5D3091C033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907C4723-E9B3-42BD-8C3B-98EAD3F3236A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,22 @@
   </si>
   <si>
     <t>1000결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,11 +1042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3008,7 +3024,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B137" si="2">B131*10</f>
+        <f t="shared" ref="B132:B141" si="2">B131*10</f>
         <v>1E+238</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -3091,6 +3107,66 @@
       </c>
       <c r="D137">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+245</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+247</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141">
+        <v>1580</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907C4723-E9B3-42BD-8C3B-98EAD3F3236A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7B17F1-297C-40C2-BA94-6EFA12E5B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,22 @@
   </si>
   <si>
     <t>1000맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3024,7 +3040,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B141" si="2">B131*10</f>
+        <f t="shared" ref="B132:B145" si="2">B131*10</f>
         <v>1E+238</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -3167,6 +3183,66 @@
       </c>
       <c r="D141">
         <v>1580</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+248</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+251</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145">
+        <v>1660</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7B17F1-297C-40C2-BA94-6EFA12E5B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B25CEED-3E43-497F-90A7-960AE3AC6220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,6 +625,22 @@
   </si>
   <si>
     <t>1000토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,11 +1074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3040,7 +3056,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B145" si="2">B131*10</f>
+        <f t="shared" ref="B132:B149" si="2">B131*10</f>
         <v>1E+238</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -3243,6 +3259,66 @@
       </c>
       <c r="D145">
         <v>1660</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+253</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999999E+254</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149">
+        <v>1740</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentAwakeTable.xlsx
+++ b/Assets/06.Table/StudentAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B25CEED-3E43-497F-90A7-960AE3AC6220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23204428-6187-48A4-BDF9-658F429CD08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,54 @@
   </si>
   <si>
     <t>1000산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1074,11 +1122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3056,7 +3104,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B149" si="2">B131*10</f>
+        <f t="shared" ref="B132:B161" si="2">B131*10</f>
         <v>1E+238</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -3319,6 +3367,186 @@
       </c>
       <c r="D149">
         <v>1740</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+256</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+257</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+259</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+261</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+262</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+263</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D157">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+264</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D158">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+265</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000003E+266</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000003E+267</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161">
+        <v>1980</v>
       </c>
     </row>
   </sheetData>
